--- a/exp_res.xlsx
+++ b/exp_res.xlsx
@@ -8,31 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f9d2b56d4542713/שולחן העבודה/Projects/Data Structures/AVL-OmerDaniel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_A96BE0393231921FD2FE31D2F8F2D3C2D453CCC4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FD699CB-6FFE-4BAD-A1B3-E7D8A33A6A5C}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_B992A5152030921FD2FE31D2F8F2D3C234DFC9B1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F0E99C2-51AC-46CA-B8C4-91AB7E2FF38E}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>mean_cost_per_join_rand</t>
+    <t>exponent</t>
   </si>
   <si>
     <t>max_join_cost_rand</t>
   </si>
   <si>
-    <t>mean_cost_per_join_max</t>
+    <t>mean_cost_per_join_rand</t>
   </si>
   <si>
     <t>max_join_cost_max</t>
+  </si>
+  <si>
+    <t>mean_cost_per_join_max</t>
   </si>
 </sst>
 </file>
@@ -91,10 +93,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -400,15 +405,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.69921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -421,373 +435,207 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.38</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="E2">
+      <c r="B4" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1.7272727272727271</v>
-      </c>
-      <c r="C3">
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>2.4285714285714279</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="D7" s="2">
+        <v>1.38</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="B8" s="2">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2.14</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>2.2352941176470589</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2.13</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>1.3157894736842111</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA03D515-50DC-4574-B900-DDFFD30E7E67}">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1.7272727272727271</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>2.4285714285714279</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>2.2352941176470589</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1.3157894736842111</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
+      <c r="C11" s="2">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
         <v>1</v>
       </c>
     </row>
